--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H2">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.94532566666667</v>
+        <v>2.680851666666667</v>
       </c>
       <c r="N2">
-        <v>77.835977</v>
+        <v>8.042555</v>
       </c>
       <c r="O2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="P2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="Q2">
-        <v>81.77006673083667</v>
+        <v>2.698806223895556</v>
       </c>
       <c r="R2">
-        <v>735.9306005775301</v>
+        <v>24.28925601506</v>
       </c>
       <c r="S2">
-        <v>0.0003398415222888863</v>
+        <v>2.134398241176695E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003398415222888863</v>
+        <v>2.134398241176694E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H3">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I3">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J3">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.51427066666666</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N3">
         <v>55.542812</v>
       </c>
       <c r="O3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="P3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="Q3">
-        <v>58.35013086118667</v>
+        <v>18.63826690874489</v>
       </c>
       <c r="R3">
-        <v>525.1511777506801</v>
+        <v>167.744402178704</v>
       </c>
       <c r="S3">
-        <v>0.0002425068009653867</v>
+        <v>0.000147404003134337</v>
       </c>
       <c r="T3">
-        <v>0.0002425068009653867</v>
+        <v>0.000147404003134337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H4">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I4">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J4">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.571174000000001</v>
+        <v>3.745104</v>
       </c>
       <c r="N4">
-        <v>10.713522</v>
+        <v>11.235312</v>
       </c>
       <c r="O4">
-        <v>0.07435179521827506</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="P4">
-        <v>0.07435179521827505</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="Q4">
-        <v>11.25501911362</v>
+        <v>3.770186209856</v>
       </c>
       <c r="R4">
-        <v>101.29517202258</v>
+        <v>33.931675888704</v>
       </c>
       <c r="S4">
-        <v>4.677656484681209E-05</v>
+        <v>2.98171789585168E-05</v>
       </c>
       <c r="T4">
-        <v>4.677656484681209E-05</v>
+        <v>2.98171789585168E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>14915.263184</v>
       </c>
       <c r="I5">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J5">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.94532566666667</v>
+        <v>2.680851666666667</v>
       </c>
       <c r="N5">
-        <v>77.835977</v>
+        <v>8.042555</v>
       </c>
       <c r="O5">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="P5">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="Q5">
-        <v>128993.7869043079</v>
+        <v>13328.53605519946</v>
       </c>
       <c r="R5">
-        <v>1160944.082138771</v>
+        <v>119956.8244967951</v>
       </c>
       <c r="S5">
-        <v>0.5361062630860793</v>
+        <v>0.105411065313961</v>
       </c>
       <c r="T5">
-        <v>0.5361062630860793</v>
+        <v>0.105411065313961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>14915.263184</v>
       </c>
       <c r="I6">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J6">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.51427066666666</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N6">
         <v>55.542812</v>
       </c>
       <c r="O6">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="P6">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="Q6">
-        <v>92048.40655104815</v>
+        <v>92048.40655104816</v>
       </c>
       <c r="R6">
-        <v>828435.6589594333</v>
+        <v>828435.6589594334</v>
       </c>
       <c r="S6">
-        <v>0.3825589467787196</v>
+        <v>0.7279809691637863</v>
       </c>
       <c r="T6">
-        <v>0.3825589467787195</v>
+        <v>0.7279809691637864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>14915.263184</v>
       </c>
       <c r="I7">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J7">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.571174000000001</v>
+        <v>3.745104</v>
       </c>
       <c r="N7">
-        <v>10.713522</v>
+        <v>11.235312</v>
       </c>
       <c r="O7">
-        <v>0.07435179521827506</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="P7">
-        <v>0.07435179521827505</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="Q7">
-        <v>17755.00002861934</v>
+        <v>18619.73727048371</v>
       </c>
       <c r="R7">
-        <v>159795.0002575741</v>
+        <v>167577.6354343534</v>
       </c>
       <c r="S7">
-        <v>0.07379089291717249</v>
+        <v>0.1472574582399162</v>
       </c>
       <c r="T7">
-        <v>0.07379089291717246</v>
+        <v>0.1472574582399162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.63986933333333</v>
+        <v>97.097641</v>
       </c>
       <c r="H8">
-        <v>103.919608</v>
+        <v>291.292923</v>
       </c>
       <c r="I8">
-        <v>0.006914772329927541</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="J8">
-        <v>0.006914772329927542</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.94532566666667</v>
+        <v>2.680851666666667</v>
       </c>
       <c r="N8">
-        <v>77.835977</v>
+        <v>8.042555</v>
       </c>
       <c r="O8">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="P8">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="Q8">
-        <v>898.7426909041128</v>
+        <v>260.3043727042516</v>
       </c>
       <c r="R8">
-        <v>8088.684218137016</v>
+        <v>2342.739354338265</v>
       </c>
       <c r="S8">
-        <v>0.003735230952278061</v>
+        <v>0.002058662790797162</v>
       </c>
       <c r="T8">
-        <v>0.003735230952278062</v>
+        <v>0.002058662790797162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.63986933333333</v>
+        <v>97.097641</v>
       </c>
       <c r="H9">
-        <v>103.919608</v>
+        <v>291.292923</v>
       </c>
       <c r="I9">
-        <v>0.006914772329927541</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="J9">
-        <v>0.006914772329927542</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.51427066666666</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N9">
         <v>55.542812</v>
       </c>
       <c r="O9">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="P9">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="Q9">
-        <v>641.3319166952995</v>
+        <v>1797.692006568831</v>
       </c>
       <c r="R9">
-        <v>5771.987250257695</v>
+        <v>16179.22805911948</v>
       </c>
       <c r="S9">
-        <v>0.002665415641393713</v>
+        <v>0.01421736256210149</v>
       </c>
       <c r="T9">
-        <v>0.002665415641393714</v>
+        <v>0.01421736256210149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.63986933333333</v>
+        <v>97.097641</v>
       </c>
       <c r="H10">
-        <v>103.919608</v>
+        <v>291.292923</v>
       </c>
       <c r="I10">
-        <v>0.006914772329927541</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="J10">
-        <v>0.006914772329927542</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.571174000000001</v>
+        <v>3.745104</v>
       </c>
       <c r="N10">
-        <v>10.713522</v>
+        <v>11.235312</v>
       </c>
       <c r="O10">
-        <v>0.07435179521827506</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="P10">
-        <v>0.07435179521827505</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="Q10">
-        <v>123.7050007265973</v>
+        <v>363.640763699664</v>
       </c>
       <c r="R10">
-        <v>1113.345006539376</v>
+        <v>3272.766873296976</v>
       </c>
       <c r="S10">
-        <v>0.0005141257362557673</v>
+        <v>0.002875916764933139</v>
       </c>
       <c r="T10">
-        <v>0.0005141257362557672</v>
+        <v>0.002875916764933139</v>
       </c>
     </row>
   </sheetData>
